--- a/data/multivar_chart_info.xlsx
+++ b/data/multivar_chart_info.xlsx
@@ -206,6 +206,8 @@
       <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -570,7 +572,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -934,7 +936,7 @@
         <v>21575</v>
       </c>
       <c r="E16">
-        <v>4.8000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
